--- a/clusters.xlsx
+++ b/clusters.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -507,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -523,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -555,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -571,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -579,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -587,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -595,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -603,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -611,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -619,7 +619,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -627,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -635,7 +635,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -643,7 +643,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -651,7 +651,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -667,7 +667,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -675,7 +675,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -683,7 +683,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -691,7 +691,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -699,7 +699,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -707,7 +707,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -715,7 +715,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -723,7 +723,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -731,7 +731,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -739,7 +739,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -747,7 +747,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -755,7 +755,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -763,7 +763,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -771,7 +771,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -779,7 +779,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -787,7 +787,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -795,7 +795,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -803,7 +803,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -811,7 +811,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -819,7 +819,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -827,7 +827,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -835,7 +835,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -843,7 +843,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -851,7 +851,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -859,7 +859,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -867,7 +867,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -875,7 +875,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -883,7 +883,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -891,7 +891,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -899,7 +899,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -907,7 +907,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -915,7 +915,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -923,7 +923,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -931,7 +931,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -939,7 +939,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -947,7 +947,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -955,7 +955,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -963,7 +963,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -971,7 +971,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -979,7 +979,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -987,7 +987,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -995,7 +995,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1003,7 +1003,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -1011,7 +1011,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1019,7 +1019,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1027,7 +1027,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1035,7 +1035,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -1043,7 +1043,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1051,7 +1051,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1059,7 +1059,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1067,7 +1067,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1075,7 +1075,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1083,7 +1083,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1091,7 +1091,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1099,7 +1099,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1107,7 +1107,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1115,7 +1115,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -1123,7 +1123,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1131,7 +1131,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1139,7 +1139,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1147,7 +1147,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1155,7 +1155,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1163,7 +1163,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -1171,7 +1171,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1179,7 +1179,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1187,7 +1187,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -1195,7 +1195,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1203,7 +1203,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1211,7 +1211,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -1219,7 +1219,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -1227,7 +1227,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1235,7 +1235,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1243,7 +1243,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1251,7 +1251,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -1259,7 +1259,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1267,7 +1267,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1275,7 +1275,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1283,7 +1283,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1291,7 +1291,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1299,7 +1299,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1307,7 +1307,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1315,7 +1315,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -1323,7 +1323,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1331,7 +1331,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1339,7 +1339,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -1347,7 +1347,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1355,7 +1355,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1363,7 +1363,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1371,7 +1371,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1379,7 +1379,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -1387,7 +1387,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -1395,7 +1395,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1403,7 +1403,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1411,7 +1411,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123">
@@ -1419,7 +1419,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -1427,7 +1427,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -1435,7 +1435,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1443,7 +1443,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1451,7 +1451,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -1459,7 +1459,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1467,7 +1467,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -1475,7 +1475,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
@@ -1483,7 +1483,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1491,7 +1491,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1499,7 +1499,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -1507,7 +1507,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135">
@@ -1515,7 +1515,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -1523,7 +1523,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1531,7 +1531,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1539,7 +1539,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -1547,7 +1547,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -1555,7 +1555,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1563,7 +1563,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1571,7 +1571,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -1579,7 +1579,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1587,7 +1587,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1595,7 +1595,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1603,7 +1603,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1611,7 +1611,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -1619,7 +1619,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1627,7 +1627,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -1635,7 +1635,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -1643,7 +1643,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -1651,7 +1651,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -1659,7 +1659,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1667,7 +1667,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -1675,7 +1675,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1683,7 +1683,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -1691,7 +1691,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -1699,7 +1699,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -1707,7 +1707,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -1715,7 +1715,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -1723,7 +1723,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -1731,7 +1731,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -1739,7 +1739,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164">
@@ -1747,7 +1747,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165">
@@ -1755,7 +1755,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -1763,7 +1763,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -1771,7 +1771,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -1779,7 +1779,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -1787,7 +1787,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -1795,7 +1795,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -1803,7 +1803,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -1811,7 +1811,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -1819,7 +1819,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -1827,7 +1827,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -1835,7 +1835,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -1843,7 +1843,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -1851,7 +1851,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -1859,7 +1859,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -1867,7 +1867,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -1875,7 +1875,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -1883,7 +1883,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -1891,7 +1891,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -1899,7 +1899,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -1907,7 +1907,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -1915,7 +1915,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -1923,7 +1923,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -1931,7 +1931,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -1939,7 +1939,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -1947,7 +1947,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -1955,7 +1955,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -1963,7 +1963,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -1971,7 +1971,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -1979,7 +1979,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -1987,7 +1987,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -1995,7 +1995,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2003,7 +2003,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2011,7 +2011,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2019,7 +2019,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -2027,7 +2027,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -2035,7 +2035,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -2043,7 +2043,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2051,7 +2051,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -2059,7 +2059,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -2067,7 +2067,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2075,7 +2075,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2083,7 +2083,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -2091,7 +2091,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2099,7 +2099,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2107,7 +2107,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -2115,7 +2115,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -2123,7 +2123,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -2131,7 +2131,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -2139,7 +2139,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2147,7 +2147,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -2155,7 +2155,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2163,7 +2163,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2171,7 +2171,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2179,7 +2179,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -2187,7 +2187,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2195,7 +2195,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2203,7 +2203,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2211,7 +2211,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2219,7 +2219,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -2227,7 +2227,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -2235,7 +2235,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2243,7 +2243,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -2251,7 +2251,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2259,7 +2259,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -2267,7 +2267,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -2275,7 +2275,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -2283,7 +2283,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -2291,7 +2291,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -2299,7 +2299,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -2307,7 +2307,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2315,7 +2315,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -2323,7 +2323,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2331,7 +2331,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -2339,7 +2339,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2347,7 +2347,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2355,7 +2355,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -2363,7 +2363,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -2371,7 +2371,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -2379,7 +2379,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -2387,7 +2387,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -2395,7 +2395,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2403,7 +2403,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2411,7 +2411,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2419,7 +2419,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -2427,7 +2427,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -2435,7 +2435,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2443,7 +2443,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -2451,7 +2451,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2459,7 +2459,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2467,7 +2467,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -2475,7 +2475,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2483,7 +2483,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -2491,7 +2491,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
@@ -2499,7 +2499,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259">
@@ -2507,7 +2507,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -2515,7 +2515,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261">
@@ -2523,7 +2523,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -2531,7 +2531,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -2539,7 +2539,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -2547,7 +2547,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -2555,7 +2555,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -2563,7 +2563,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -2571,7 +2571,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -2579,7 +2579,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -2587,7 +2587,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -2595,7 +2595,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -2603,7 +2603,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -2611,7 +2611,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -2619,7 +2619,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -2627,7 +2627,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -2635,7 +2635,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -2643,7 +2643,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -2651,7 +2651,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -2659,7 +2659,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -2667,7 +2667,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -2675,7 +2675,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -2683,7 +2683,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -2691,7 +2691,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -2699,7 +2699,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -2707,7 +2707,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -2715,7 +2715,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -2723,7 +2723,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -2731,7 +2731,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -2739,7 +2739,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -2747,7 +2747,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -2755,7 +2755,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -2763,7 +2763,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -2771,7 +2771,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -2779,7 +2779,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -2787,7 +2787,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -2795,7 +2795,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -2803,7 +2803,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -2811,7 +2811,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -2819,7 +2819,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -2827,7 +2827,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -2835,7 +2835,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -2843,7 +2843,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -2851,7 +2851,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -2859,7 +2859,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -2867,7 +2867,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -2875,7 +2875,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -2883,7 +2883,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -2891,7 +2891,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -2899,7 +2899,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -2907,7 +2907,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -2915,7 +2915,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -2923,7 +2923,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -2931,7 +2931,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -2939,7 +2939,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -2947,7 +2947,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -2955,7 +2955,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -2963,7 +2963,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -2971,7 +2971,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -2979,7 +2979,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -2987,7 +2987,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320">
@@ -2995,7 +2995,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3003,7 +3003,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -3011,7 +3011,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -3019,7 +3019,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3027,7 +3027,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3035,7 +3035,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3043,7 +3043,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -3051,7 +3051,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -3059,7 +3059,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3067,7 +3067,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3075,7 +3075,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -3083,7 +3083,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -3091,7 +3091,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -3099,7 +3099,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3107,7 +3107,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -3115,7 +3115,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -3123,7 +3123,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -3131,7 +3131,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -3139,7 +3139,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -3147,7 +3147,103 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
